--- a/test_youtube/done/clubfriday.xlsx
+++ b/test_youtube/done/clubfriday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\AICARES\AICARE\test_youtube\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CC6AC3-663F-47AF-A96A-B0A0F74CA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F182551C-24B0-4B73-A6A6-6DE7B1D8841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
